--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\mobileTestig\diplom\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814269E-E291-433B-B6D3-18CB6B1C73FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F480B8DF-8758-4ABF-9668-731F66AE220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="189">
   <si>
     <t xml:space="preserve">Группа проверок </t>
   </si>
@@ -450,18 +450,12 @@
     <t>Фильтрация  новостей на экранах "новости", "панель управления " по методу pairwise</t>
   </si>
   <si>
-    <t xml:space="preserve">Создание новости в прошлом с введением даты с клавиатуры, с выбором даты с календаря </t>
-  </si>
-  <si>
     <t>Создание новости с автоматически заполненным значением заголовка</t>
   </si>
   <si>
     <t xml:space="preserve">Создание заявки с назначением исполнителя </t>
   </si>
   <si>
-    <t>Создание заявки с плановой датой исполнения в прошлом с выбором с календаря, с клавиатуры</t>
-  </si>
-  <si>
     <t>Создание сегодняшней заявки с плановой датой час назад</t>
   </si>
   <si>
@@ -583,6 +577,30 @@
   </si>
   <si>
     <t>Создание заявки с плановой датой исполнения в будущем</t>
+  </si>
+  <si>
+    <t>Создание заявки с плановой датой исполнения в прошлом с выбором из календаря, с помощью copypast</t>
+  </si>
+  <si>
+    <t>Создание новости в прошлом с введением даты с выбором даты с календаря, с помощью copypast</t>
+  </si>
+  <si>
+    <t>тест частично пройден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новость опубликована в прошлом при внесении даты публикации с помощью copypast </t>
+  </si>
+  <si>
+    <t>тест частично пройдны</t>
+  </si>
+  <si>
+    <t>Появляется заявка с плановой датой в прошлом при введении даты с помощью copypast</t>
+  </si>
+  <si>
+    <t>Ограничение количества попыток</t>
+  </si>
+  <si>
+    <t>Не ограниченно число попыток входа</t>
   </si>
 </sst>
 </file>
@@ -706,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -739,6 +757,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1057,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1092,15 +1119,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1114,7 +1141,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1126,7 +1153,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
@@ -1141,7 +1168,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
@@ -1153,9 +1180,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>78</v>
@@ -1165,564 +1192,572 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="C10" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
       <c r="B12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
       <c r="B24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
+      <c r="B32" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="15"/>
+      <c r="B34" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15"/>
+      <c r="B35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="15"/>
+      <c r="B36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="C38" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
+    </row>
+    <row r="39" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
       <c r="B39" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
+    </row>
+    <row r="40" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
       <c r="B40" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D41" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11" t="s">
+      <c r="C44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11" t="s">
+      <c r="C45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11" t="s">
+      <c r="C46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="C48" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="29.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
+      <c r="E48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
       <c r="B49" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A50" s="15"/>
       <c r="B50" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>79</v>
@@ -1732,50 +1767,50 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A52" s="15"/>
+      <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="19" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="20"/>
-      <c r="B53" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>79</v>
+      <c r="C53" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="20"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>79</v>
@@ -1785,69 +1820,66 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="23"/>
+      <c r="B56" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="21"/>
-      <c r="B56" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="D56" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="12" t="s">
+      <c r="C58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
       <c r="B59" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -1855,9 +1887,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="12"/>
-      <c r="B60" s="1" t="s">
-        <v>174</v>
+      <c r="A60" s="15"/>
+      <c r="B60" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>78</v>
@@ -1866,170 +1898,170 @@
         <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="15"/>
+      <c r="B61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="22" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A62" s="23"/>
-      <c r="B62" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" s="18" t="s">
+      <c r="C64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="12" t="s">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A66" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="C66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="12"/>
-      <c r="B66" s="3" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="C67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="12"/>
-      <c r="B67" s="3" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="C68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="12"/>
-      <c r="B68" s="3" t="s">
+    <row r="69" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="C69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="12"/>
-      <c r="B69" s="9" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="15"/>
+      <c r="B70" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="12"/>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="15"/>
+      <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="13" t="s">
+    <row r="72" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="14"/>
-      <c r="B72" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>78</v>
@@ -2038,13 +2070,13 @@
         <v>74</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="14"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A73" s="17"/>
       <c r="B73" s="9" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>78</v>
@@ -2052,11 +2084,14 @@
       <c r="D73" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="13.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="14"/>
-      <c r="B74" s="1" t="s">
-        <v>93</v>
+      <c r="E73" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="17"/>
+      <c r="B74" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>78</v>
@@ -2064,172 +2099,172 @@
       <c r="D74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A75" s="17"/>
+      <c r="B75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="12" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="12"/>
-      <c r="B76" s="9" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="15"/>
+      <c r="B77" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="12"/>
-      <c r="B77" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="15"/>
+      <c r="B78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="12" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="12"/>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="15"/>
+      <c r="B80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="12"/>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="15"/>
+      <c r="B81" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="12" t="s">
+      <c r="C81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="12"/>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="15"/>
+      <c r="B83" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="12"/>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="15"/>
+      <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="13" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="14"/>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="17"/>
+      <c r="B86" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="14"/>
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="17"/>
+      <c r="B87" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="15"/>
-      <c r="B87" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>79</v>
@@ -2238,146 +2273,146 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="18"/>
+      <c r="B88" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="12"/>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A90" s="15"/>
+      <c r="B90" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="12" t="s">
+      <c r="C90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="12"/>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="15"/>
+      <c r="B92" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A92" s="3" t="s">
+      <c r="C92" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="18" t="s">
+      <c r="C93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="94" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>81</v>
+      <c r="D95" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A97" s="12" t="s">
-        <v>61</v>
+      <c r="D96" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="12"/>
+      <c r="D97" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="B98" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>79</v>
@@ -2387,134 +2422,131 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="12"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="15"/>
+      <c r="B100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="C101" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="12" t="s">
+      <c r="C103" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="12"/>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" s="15"/>
+      <c r="B105" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A105" s="3" t="s">
+      <c r="D105" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="18" t="s">
+      <c r="C106" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-    </row>
-    <row r="107" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A107" s="12" t="s">
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A108" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="12"/>
-      <c r="B108" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>78</v>
@@ -2526,10 +2558,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A109" s="15"/>
       <c r="B109" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>78</v>
@@ -2541,47 +2573,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A110" s="15"/>
+      <c r="B110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="17" t="s">
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A51"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A10:A28"/>
+    <mergeCell ref="A29:A52"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A85:A88"/>
     <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
